--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a2-Gp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a2-Gp6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H2">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I2">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J2">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.113648</v>
       </c>
       <c r="O2">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111984</v>
       </c>
       <c r="P2">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111983</v>
       </c>
       <c r="Q2">
-        <v>0.7790118649200002</v>
+        <v>0.8028910712639999</v>
       </c>
       <c r="R2">
-        <v>4.67407118952</v>
+        <v>4.817346427583999</v>
       </c>
       <c r="S2">
-        <v>0.02154506706156464</v>
+        <v>0.02520346200125435</v>
       </c>
       <c r="T2">
-        <v>0.01510451898680051</v>
+        <v>0.01743570830452063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H3">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I3">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J3">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.002426333333333334</v>
+        <v>0.0003073333333333333</v>
       </c>
       <c r="N3">
-        <v>0.007279000000000001</v>
+        <v>0.000922</v>
       </c>
       <c r="O3">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="P3">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="Q3">
-        <v>0.04989465159750001</v>
+        <v>0.006513669995999999</v>
       </c>
       <c r="R3">
-        <v>0.2993679095850001</v>
+        <v>0.03908201997599999</v>
       </c>
       <c r="S3">
-        <v>0.001379932274577019</v>
+        <v>0.0002044698715785276</v>
       </c>
       <c r="T3">
-        <v>0.000967423920393856</v>
+        <v>0.0001414518782272281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I4">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J4">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,10 +691,10 @@
         <v>0.113648</v>
       </c>
       <c r="O4">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111984</v>
       </c>
       <c r="P4">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111983</v>
       </c>
       <c r="Q4">
         <v>28.14385326428267</v>
@@ -703,10 +703,10 @@
         <v>253.294679378544</v>
       </c>
       <c r="S4">
-        <v>0.7783722344358321</v>
+        <v>0.8834604863627795</v>
       </c>
       <c r="T4">
-        <v>0.8185357344378965</v>
+        <v>0.9167644908083293</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I5">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J5">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.002426333333333334</v>
+        <v>0.0003073333333333333</v>
       </c>
       <c r="N5">
-        <v>0.007279000000000001</v>
+        <v>0.000922</v>
       </c>
       <c r="O5">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="P5">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="Q5">
-        <v>1.802575565876334</v>
+        <v>0.2283245874073333</v>
       </c>
       <c r="R5">
-        <v>16.223180092887</v>
+        <v>2.054921286666</v>
       </c>
       <c r="S5">
-        <v>0.0498536841339788</v>
+        <v>0.007167311069499531</v>
       </c>
       <c r="T5">
-        <v>0.0524261017437478</v>
+        <v>0.007437498772748132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H6">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I6">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J6">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,22 +815,22 @@
         <v>0.113648</v>
       </c>
       <c r="O6">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111984</v>
       </c>
       <c r="P6">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111983</v>
       </c>
       <c r="Q6">
-        <v>0.023919153616</v>
+        <v>0.002231150163555555</v>
       </c>
       <c r="R6">
-        <v>0.215272382544</v>
+        <v>0.020080351472</v>
       </c>
       <c r="S6">
-        <v>0.0006615300638142512</v>
+        <v>7.003778019070149E-05</v>
       </c>
       <c r="T6">
-        <v>0.0006956645839627337</v>
+        <v>7.267800980915412E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +844,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H7">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I7">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J7">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.002426333333333334</v>
+        <v>0.0003073333333333333</v>
       </c>
       <c r="N7">
-        <v>0.007279000000000001</v>
+        <v>0.000922</v>
       </c>
       <c r="O7">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="P7">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="Q7">
-        <v>0.001531989293</v>
+        <v>1.810080644444444E-05</v>
       </c>
       <c r="R7">
-        <v>0.013787903637</v>
+        <v>0.000162907258</v>
       </c>
       <c r="S7">
-        <v>4.237010184520567E-05</v>
+        <v>5.682003496394725E-07</v>
       </c>
       <c r="T7">
-        <v>4.455637148620952E-05</v>
+        <v>5.896199233074062E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H8">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I8">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J8">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,22 +939,22 @@
         <v>0.113648</v>
       </c>
       <c r="O8">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111984</v>
       </c>
       <c r="P8">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111983</v>
       </c>
       <c r="Q8">
-        <v>4.223059726584</v>
+        <v>2.640982814253334</v>
       </c>
       <c r="R8">
-        <v>25.338358359504</v>
+        <v>15.84589688552</v>
       </c>
       <c r="S8">
-        <v>0.1167968154420714</v>
+        <v>0.08290279016331636</v>
       </c>
       <c r="T8">
-        <v>0.08188230333196683</v>
+        <v>0.05735199659659958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H9">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I9">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J9">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.002426333333333334</v>
+        <v>0.0003073333333333333</v>
       </c>
       <c r="N9">
-        <v>0.007279000000000001</v>
+        <v>0.000922</v>
       </c>
       <c r="O9">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="P9">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="Q9">
-        <v>0.2704812381195</v>
+        <v>0.02142568417166667</v>
       </c>
       <c r="R9">
-        <v>1.622887428717</v>
+        <v>0.12855410503</v>
       </c>
       <c r="S9">
-        <v>0.007480677351144218</v>
+        <v>0.0006725712069774891</v>
       </c>
       <c r="T9">
-        <v>0.005244450284680651</v>
+        <v>0.00046528351455428</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H10">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I10">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J10">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,22 +1063,22 @@
         <v>0.113648</v>
       </c>
       <c r="O10">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111984</v>
       </c>
       <c r="P10">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111983</v>
       </c>
       <c r="Q10">
-        <v>0.7704014315342224</v>
+        <v>0.004314823105777778</v>
       </c>
       <c r="R10">
-        <v>6.933612883808</v>
+        <v>0.038833407952</v>
       </c>
       <c r="S10">
-        <v>0.02130692901376384</v>
+        <v>0.0001354461197549508</v>
       </c>
       <c r="T10">
-        <v>0.02240635266433707</v>
+        <v>0.0001405520619494035</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H11">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I11">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J11">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.002426333333333334</v>
+        <v>0.0003073333333333333</v>
       </c>
       <c r="N11">
-        <v>0.007279000000000001</v>
+        <v>0.000922</v>
       </c>
       <c r="O11">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="P11">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="Q11">
-        <v>0.04934316503711112</v>
+        <v>3.500516422222222E-05</v>
       </c>
       <c r="R11">
-        <v>0.444088485334</v>
+        <v>0.000315046478</v>
       </c>
       <c r="S11">
-        <v>0.001364679856145176</v>
+        <v>1.09884311570872E-06</v>
       </c>
       <c r="T11">
-        <v>0.001435096447308439</v>
+        <v>1.140266446548554E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H12">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I12">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J12">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.113648</v>
       </c>
       <c r="O12">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111984</v>
       </c>
       <c r="P12">
-        <v>0.9398066602164942</v>
+        <v>0.9919525181111983</v>
       </c>
       <c r="Q12">
-        <v>0.04064387110222223</v>
+        <v>0.005743567879111111</v>
       </c>
       <c r="R12">
-        <v>0.36579483992</v>
+        <v>0.051692110912</v>
       </c>
       <c r="S12">
-        <v>0.00112408419944784</v>
+        <v>0.00018029568390256</v>
       </c>
       <c r="T12">
-        <v>0.001182086211530872</v>
+        <v>0.0001870923299901799</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H13">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I13">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J13">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.002426333333333334</v>
+        <v>0.0003073333333333333</v>
       </c>
       <c r="N13">
-        <v>0.007279000000000001</v>
+        <v>0.000922</v>
       </c>
       <c r="O13">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="P13">
-        <v>0.06019333978350575</v>
+        <v>0.008047481888801606</v>
       </c>
       <c r="Q13">
-        <v>0.002603184726111112</v>
+        <v>4.659624088888889E-05</v>
       </c>
       <c r="R13">
-        <v>0.023428662535</v>
+        <v>0.0004193661679999999</v>
       </c>
       <c r="S13">
-        <v>7.19960658153318E-05</v>
+        <v>1.462697280710266E-06</v>
       </c>
       <c r="T13">
-        <v>7.571101588882531E-05</v>
+        <v>1.517836902109548E-06</v>
       </c>
     </row>
   </sheetData>
